--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Sema4d-Cd72.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Sema4d-Cd72.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>55.59510733333334</v>
+        <v>1.144900666666667</v>
       </c>
       <c r="H2">
-        <v>166.785322</v>
+        <v>3.434702</v>
       </c>
       <c r="I2">
-        <v>0.4537221086682117</v>
+        <v>0.02523133726002265</v>
       </c>
       <c r="J2">
-        <v>0.4537221086682117</v>
+        <v>0.02523133726002265</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.822718</v>
+        <v>2.367160666666667</v>
       </c>
       <c r="N2">
-        <v>8.468154</v>
+        <v>7.101482000000001</v>
       </c>
       <c r="O2">
-        <v>0.0739039825466893</v>
+        <v>0.05789959437242401</v>
       </c>
       <c r="P2">
-        <v>0.07390398254668928</v>
+        <v>0.05789959437242401</v>
       </c>
       <c r="Q2">
-        <v>156.929310181732</v>
+        <v>2.710163825373778</v>
       </c>
       <c r="R2">
-        <v>1412.363791635588</v>
+        <v>24.391474428364</v>
       </c>
       <c r="S2">
-        <v>0.03353187080006258</v>
+        <v>0.001460884192829139</v>
       </c>
       <c r="T2">
-        <v>0.03353187080006258</v>
+        <v>0.001460884192829139</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>55.59510733333334</v>
+        <v>1.144900666666667</v>
       </c>
       <c r="H3">
-        <v>166.785322</v>
+        <v>3.434702</v>
       </c>
       <c r="I3">
-        <v>0.4537221086682117</v>
+        <v>0.02523133726002265</v>
       </c>
       <c r="J3">
-        <v>0.4537221086682117</v>
+        <v>0.02523133726002265</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>15.127344</v>
       </c>
       <c r="O3">
-        <v>0.1320206230252502</v>
+        <v>0.1233358165988623</v>
       </c>
       <c r="P3">
-        <v>0.1320206230252502</v>
+        <v>0.1233358165988623</v>
       </c>
       <c r="Q3">
-        <v>280.335437782752</v>
+        <v>5.773102076832</v>
       </c>
       <c r="R3">
-        <v>2523.018940044768</v>
+        <v>51.957918691488</v>
       </c>
       <c r="S3">
-        <v>0.0599006754667076</v>
+        <v>0.003111927584846194</v>
       </c>
       <c r="T3">
-        <v>0.0599006754667076</v>
+        <v>0.003111927584846194</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>55.59510733333334</v>
+        <v>1.144900666666667</v>
       </c>
       <c r="H4">
-        <v>166.785322</v>
+        <v>3.434702</v>
       </c>
       <c r="I4">
-        <v>0.4537221086682117</v>
+        <v>0.02523133726002265</v>
       </c>
       <c r="J4">
-        <v>0.4537221086682117</v>
+        <v>0.02523133726002265</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.265631</v>
+        <v>2.873356333333334</v>
       </c>
       <c r="N4">
-        <v>6.796893000000001</v>
+        <v>8.620069000000001</v>
       </c>
       <c r="O4">
-        <v>0.05931841362872176</v>
+        <v>0.07028089327865741</v>
       </c>
       <c r="P4">
-        <v>0.05931841362872176</v>
+        <v>0.07028089327865743</v>
       </c>
       <c r="Q4">
-        <v>125.9579986227274</v>
+        <v>3.289707581604222</v>
       </c>
       <c r="R4">
-        <v>1133.621987604546</v>
+        <v>29.607368234438</v>
       </c>
       <c r="S4">
-        <v>0.02691407571447682</v>
+        <v>0.001773280921249464</v>
       </c>
       <c r="T4">
-        <v>0.02691407571447682</v>
+        <v>0.001773280921249464</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>55.59510733333334</v>
+        <v>1.144900666666667</v>
       </c>
       <c r="H5">
-        <v>166.785322</v>
+        <v>3.434702</v>
       </c>
       <c r="I5">
-        <v>0.4537221086682117</v>
+        <v>0.02523133726002265</v>
       </c>
       <c r="J5">
-        <v>0.4537221086682117</v>
+        <v>0.02523133726002265</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>28.06359933333333</v>
+        <v>30.60092533333333</v>
       </c>
       <c r="N5">
-        <v>84.190798</v>
+        <v>91.80277599999999</v>
       </c>
       <c r="O5">
-        <v>0.7347569807993387</v>
+        <v>0.7484836957500562</v>
       </c>
       <c r="P5">
-        <v>0.7347569807993387</v>
+        <v>0.7484836957500562</v>
       </c>
       <c r="Q5">
-        <v>1560.198817096329</v>
+        <v>35.03501981475022</v>
       </c>
       <c r="R5">
-        <v>14041.78935386696</v>
+        <v>315.3151783327519</v>
       </c>
       <c r="S5">
-        <v>0.3333754866869647</v>
+        <v>0.01888524456109785</v>
       </c>
       <c r="T5">
-        <v>0.3333754866869647</v>
+        <v>0.01888524456109785</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>4.963977</v>
       </c>
       <c r="I6">
-        <v>0.01350398275347337</v>
+        <v>0.03646539869776051</v>
       </c>
       <c r="J6">
-        <v>0.01350398275347337</v>
+        <v>0.03646539869776051</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.822718</v>
+        <v>2.367160666666667</v>
       </c>
       <c r="N6">
-        <v>8.468154</v>
+        <v>7.101482000000001</v>
       </c>
       <c r="O6">
-        <v>0.0739039825466893</v>
+        <v>0.05789959437242401</v>
       </c>
       <c r="P6">
-        <v>0.07390398254668928</v>
+        <v>0.05789959437242401</v>
       </c>
       <c r="Q6">
-        <v>4.670635743161999</v>
+        <v>3.916843701546</v>
       </c>
       <c r="R6">
-        <v>42.035721688458</v>
+        <v>35.251593313914</v>
       </c>
       <c r="S6">
-        <v>0.0009979981057234894</v>
+        <v>0.002111331793229052</v>
       </c>
       <c r="T6">
-        <v>0.0009979981057234891</v>
+        <v>0.002111331793229052</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>4.963977</v>
       </c>
       <c r="I7">
-        <v>0.01350398275347337</v>
+        <v>0.03646539869776051</v>
       </c>
       <c r="J7">
-        <v>0.01350398275347337</v>
+        <v>0.03646539869776051</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>15.127344</v>
       </c>
       <c r="O7">
-        <v>0.1320206230252502</v>
+        <v>0.1233358165988623</v>
       </c>
       <c r="P7">
-        <v>0.1320206230252502</v>
+        <v>0.1233358165988623</v>
       </c>
       <c r="Q7">
         <v>8.343531965232</v>
@@ -883,10 +883,10 @@
         <v>75.091787687088</v>
       </c>
       <c r="S7">
-        <v>0.001782804216435789</v>
+        <v>0.004497489725991384</v>
       </c>
       <c r="T7">
-        <v>0.001782804216435789</v>
+        <v>0.004497489725991384</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>4.963977</v>
       </c>
       <c r="I8">
-        <v>0.01350398275347337</v>
+        <v>0.03646539869776051</v>
       </c>
       <c r="J8">
-        <v>0.01350398275347337</v>
+        <v>0.03646539869776051</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.265631</v>
+        <v>2.873356333333334</v>
       </c>
       <c r="N8">
-        <v>6.796893000000001</v>
+        <v>8.620069000000001</v>
       </c>
       <c r="O8">
-        <v>0.05931841362872176</v>
+        <v>0.07028089327865741</v>
       </c>
       <c r="P8">
-        <v>0.05931841362872176</v>
+        <v>0.07028089327865743</v>
       </c>
       <c r="Q8">
-        <v>3.748846724829</v>
+        <v>4.754424917157</v>
       </c>
       <c r="R8">
-        <v>33.739620523461</v>
+        <v>42.78982425441301</v>
       </c>
       <c r="S8">
-        <v>0.0008010348346056585</v>
+        <v>0.002562820794241</v>
       </c>
       <c r="T8">
-        <v>0.0008010348346056584</v>
+        <v>0.002562820794241</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>4.963977</v>
       </c>
       <c r="I9">
-        <v>0.01350398275347337</v>
+        <v>0.03646539869776051</v>
       </c>
       <c r="J9">
-        <v>0.01350398275347337</v>
+        <v>0.03646539869776051</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>28.06359933333333</v>
+        <v>30.60092533333333</v>
       </c>
       <c r="N9">
-        <v>84.190798</v>
+        <v>91.80277599999999</v>
       </c>
       <c r="O9">
-        <v>0.7347569807993387</v>
+        <v>0.7484836957500562</v>
       </c>
       <c r="P9">
-        <v>0.7347569807993387</v>
+        <v>0.7484836957500562</v>
       </c>
       <c r="Q9">
-        <v>46.435687209294</v>
+        <v>50.63409651112799</v>
       </c>
       <c r="R9">
-        <v>417.921184883646</v>
+        <v>455.7068686001519</v>
       </c>
       <c r="S9">
-        <v>0.009922145596708435</v>
+        <v>0.02729375638429908</v>
       </c>
       <c r="T9">
-        <v>0.009922145596708435</v>
+        <v>0.02729375638429908</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.222176333333334</v>
+        <v>3.191626333333333</v>
       </c>
       <c r="H10">
-        <v>9.666529000000001</v>
+        <v>9.574878999999999</v>
       </c>
       <c r="I10">
-        <v>0.02629678600484052</v>
+        <v>0.07033710676294723</v>
       </c>
       <c r="J10">
-        <v>0.02629678600484052</v>
+        <v>0.07033710676294723</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.822718</v>
+        <v>2.367160666666667</v>
       </c>
       <c r="N10">
-        <v>8.468154</v>
+        <v>7.101482000000001</v>
       </c>
       <c r="O10">
-        <v>0.0739039825466893</v>
+        <v>0.05789959437242401</v>
       </c>
       <c r="P10">
-        <v>0.07390398254668928</v>
+        <v>0.05789959437242401</v>
       </c>
       <c r="Q10">
-        <v>9.095295135274</v>
+        <v>7.555092318964223</v>
       </c>
       <c r="R10">
-        <v>81.857656217466</v>
+        <v>67.99583087067801</v>
       </c>
       <c r="S10">
-        <v>0.001943437213935757</v>
+        <v>0.004072489950904526</v>
       </c>
       <c r="T10">
-        <v>0.001943437213935757</v>
+        <v>0.004072489950904526</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.222176333333334</v>
+        <v>3.191626333333333</v>
       </c>
       <c r="H11">
-        <v>9.666529000000001</v>
+        <v>9.574878999999999</v>
       </c>
       <c r="I11">
-        <v>0.02629678600484052</v>
+        <v>0.07033710676294723</v>
       </c>
       <c r="J11">
-        <v>0.02629678600484052</v>
+        <v>0.07033710676294723</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>15.127344</v>
       </c>
       <c r="O11">
-        <v>0.1320206230252502</v>
+        <v>0.1233358165988623</v>
       </c>
       <c r="P11">
-        <v>0.1320206230252502</v>
+        <v>0.1233358165988623</v>
       </c>
       <c r="Q11">
-        <v>16.247656607664</v>
+        <v>16.093609821264</v>
       </c>
       <c r="R11">
-        <v>146.228909468976</v>
+        <v>144.842488391376</v>
       </c>
       <c r="S11">
-        <v>0.003471718071920726</v>
+        <v>0.008675084499809459</v>
       </c>
       <c r="T11">
-        <v>0.003471718071920726</v>
+        <v>0.008675084499809459</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.222176333333334</v>
+        <v>3.191626333333333</v>
       </c>
       <c r="H12">
-        <v>9.666529000000001</v>
+        <v>9.574878999999999</v>
       </c>
       <c r="I12">
-        <v>0.02629678600484052</v>
+        <v>0.07033710676294723</v>
       </c>
       <c r="J12">
-        <v>0.02629678600484052</v>
+        <v>0.07033710676294723</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.265631</v>
+        <v>2.873356333333334</v>
       </c>
       <c r="N12">
-        <v>6.796893000000001</v>
+        <v>8.620069000000001</v>
       </c>
       <c r="O12">
-        <v>0.05931841362872176</v>
+        <v>0.07028089327865741</v>
       </c>
       <c r="P12">
-        <v>0.05931841362872176</v>
+        <v>0.07028089327865743</v>
       </c>
       <c r="Q12">
-        <v>7.300262588266335</v>
+        <v>9.170679738516778</v>
       </c>
       <c r="R12">
-        <v>65.70236329439702</v>
+        <v>82.53611764665101</v>
       </c>
       <c r="S12">
-        <v>0.001559883629341111</v>
+        <v>0.004943354693936227</v>
       </c>
       <c r="T12">
-        <v>0.001559883629341111</v>
+        <v>0.004943354693936228</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.222176333333334</v>
+        <v>3.191626333333333</v>
       </c>
       <c r="H13">
-        <v>9.666529000000001</v>
+        <v>9.574878999999999</v>
       </c>
       <c r="I13">
-        <v>0.02629678600484052</v>
+        <v>0.07033710676294723</v>
       </c>
       <c r="J13">
-        <v>0.02629678600484052</v>
+        <v>0.07033710676294723</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>28.06359933333333</v>
+        <v>30.60092533333333</v>
       </c>
       <c r="N13">
-        <v>84.190798</v>
+        <v>91.80277599999999</v>
       </c>
       <c r="O13">
-        <v>0.7347569807993387</v>
+        <v>0.7484836957500562</v>
       </c>
       <c r="P13">
-        <v>0.7347569807993387</v>
+        <v>0.7484836957500562</v>
       </c>
       <c r="Q13">
-        <v>90.42586560001578</v>
+        <v>97.66671911823377</v>
       </c>
       <c r="R13">
-        <v>813.832790400142</v>
+        <v>879.0004720641039</v>
       </c>
       <c r="S13">
-        <v>0.01932174708964292</v>
+        <v>0.05264617761829702</v>
       </c>
       <c r="T13">
-        <v>0.01932174708964292</v>
+        <v>0.05264617761829702</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>62.05924166666666</v>
+        <v>39.384953</v>
       </c>
       <c r="H14">
-        <v>186.177725</v>
+        <v>118.154859</v>
       </c>
       <c r="I14">
-        <v>0.5064771225734744</v>
+        <v>0.8679661572792696</v>
       </c>
       <c r="J14">
-        <v>0.5064771225734744</v>
+        <v>0.8679661572792696</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.822718</v>
+        <v>2.367160666666667</v>
       </c>
       <c r="N14">
-        <v>8.468154</v>
+        <v>7.101482000000001</v>
       </c>
       <c r="O14">
-        <v>0.0739039825466893</v>
+        <v>0.05789959437242401</v>
       </c>
       <c r="P14">
-        <v>0.07390398254668928</v>
+        <v>0.05789959437242401</v>
       </c>
       <c r="Q14">
-        <v>175.17573851885</v>
+        <v>93.23051160011534</v>
       </c>
       <c r="R14">
-        <v>1576.58164666965</v>
+        <v>839.074604401038</v>
       </c>
       <c r="S14">
-        <v>0.03743067642696747</v>
+        <v>0.05025488843546129</v>
       </c>
       <c r="T14">
-        <v>0.03743067642696746</v>
+        <v>0.05025488843546129</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>62.05924166666666</v>
+        <v>39.384953</v>
       </c>
       <c r="H15">
-        <v>186.177725</v>
+        <v>118.154859</v>
       </c>
       <c r="I15">
-        <v>0.5064771225734744</v>
+        <v>0.8679661572792696</v>
       </c>
       <c r="J15">
-        <v>0.5064771225734744</v>
+        <v>0.8679661572792696</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>15.127344</v>
       </c>
       <c r="O15">
-        <v>0.1320206230252502</v>
+        <v>0.1233358165988623</v>
       </c>
       <c r="P15">
-        <v>0.1320206230252502</v>
+        <v>0.1233358165988623</v>
       </c>
       <c r="Q15">
-        <v>312.9304990236</v>
+        <v>198.596577484944</v>
       </c>
       <c r="R15">
-        <v>2816.3744912124</v>
+        <v>1787.369197364496</v>
       </c>
       <c r="S15">
-        <v>0.06686542527018613</v>
+        <v>0.1070513147882153</v>
       </c>
       <c r="T15">
-        <v>0.06686542527018613</v>
+        <v>0.1070513147882153</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>62.05924166666666</v>
+        <v>39.384953</v>
       </c>
       <c r="H16">
-        <v>186.177725</v>
+        <v>118.154859</v>
       </c>
       <c r="I16">
-        <v>0.5064771225734744</v>
+        <v>0.8679661572792696</v>
       </c>
       <c r="J16">
-        <v>0.5064771225734744</v>
+        <v>0.8679661572792696</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.265631</v>
+        <v>2.873356333333334</v>
       </c>
       <c r="N16">
-        <v>6.796893000000001</v>
+        <v>8.620069000000001</v>
       </c>
       <c r="O16">
-        <v>0.05931841362872176</v>
+        <v>0.07028089327865741</v>
       </c>
       <c r="P16">
-        <v>0.05931841362872176</v>
+        <v>0.07028089327865743</v>
       </c>
       <c r="Q16">
-        <v>140.6033417564917</v>
+        <v>113.1670041405857</v>
       </c>
       <c r="R16">
-        <v>1265.430075808425</v>
+        <v>1018.503037265271</v>
       </c>
       <c r="S16">
-        <v>0.03004341945029817</v>
+        <v>0.06100143686923072</v>
       </c>
       <c r="T16">
-        <v>0.03004341945029817</v>
+        <v>0.06100143686923074</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>62.05924166666666</v>
+        <v>39.384953</v>
       </c>
       <c r="H17">
-        <v>186.177725</v>
+        <v>118.154859</v>
       </c>
       <c r="I17">
-        <v>0.5064771225734744</v>
+        <v>0.8679661572792696</v>
       </c>
       <c r="J17">
-        <v>0.5064771225734744</v>
+        <v>0.8679661572792696</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>28.06359933333333</v>
+        <v>30.60092533333333</v>
       </c>
       <c r="N17">
-        <v>84.190798</v>
+        <v>91.80277599999999</v>
       </c>
       <c r="O17">
-        <v>0.7347569807993387</v>
+        <v>0.7484836957500562</v>
       </c>
       <c r="P17">
-        <v>0.7347569807993387</v>
+        <v>0.7484836957500562</v>
       </c>
       <c r="Q17">
-        <v>1741.605693063839</v>
+        <v>1205.216006009842</v>
       </c>
       <c r="R17">
-        <v>15674.45123757455</v>
+        <v>10846.94405408858</v>
       </c>
       <c r="S17">
-        <v>0.3721376014260227</v>
+        <v>0.6496585171863624</v>
       </c>
       <c r="T17">
-        <v>0.3721376014260227</v>
+        <v>0.6496585171863624</v>
       </c>
     </row>
   </sheetData>
